--- a/03_7sec_sigAge/SAM.xlsx
+++ b/03_7sec_sigAge/SAM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0519AE5D-4D09-4C31-A84F-9970E9ABE953}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3AED5A-B8BD-47FC-B644-1A7C95BBBA95}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="11586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>capital</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>checksum</t>
+  </si>
+  <si>
+    <t>labor1g1</t>
+  </si>
+  <si>
+    <t>labor2g2</t>
+  </si>
+  <si>
+    <t>labor1g2</t>
+  </si>
+  <si>
+    <t>labor2g1</t>
+  </si>
+  <si>
+    <t>labor1g3</t>
+  </si>
+  <si>
+    <t>labor2g3</t>
   </si>
 </sst>
 </file>
@@ -145,17 +163,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -452,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -518,15 +526,6 @@
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B13" t="s">
@@ -598,21 +597,21 @@
         <v>5</v>
       </c>
       <c r="L14">
-        <f>B28-N14-M14-SUM(B14:H14)</f>
-        <v>40</v>
+        <f>B32-N14-M14-SUM(B14:H14)</f>
+        <v>128.5</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N14">
         <v>10</v>
       </c>
       <c r="O14">
         <f>SUM(B14:N14)</f>
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="Q14">
-        <f>O14-B28</f>
+        <f>O14-B32</f>
         <v>0</v>
       </c>
     </row>
@@ -639,21 +638,21 @@
         <v>5</v>
       </c>
       <c r="L15">
-        <f>C28-N15-M15-SUM(B15:H15)</f>
-        <v>21</v>
+        <f>C32-N15-M15-SUM(B15:H15)</f>
+        <v>64</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>5</v>
       </c>
       <c r="O15">
-        <f t="shared" ref="O15:O27" si="0">SUM(B15:N15)</f>
-        <v>77</v>
+        <f t="shared" ref="O15:O31" si="0">SUM(B15:N15)</f>
+        <v>122</v>
       </c>
       <c r="Q15">
-        <f>O15-C28</f>
+        <f>O15-C32</f>
         <v>0</v>
       </c>
     </row>
@@ -680,21 +679,21 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <f>D28-N16-M16-SUM(B16:H16)</f>
-        <v>25.5</v>
+        <f>D32-N16-M16-SUM(B16:H16)</f>
+        <v>30.5</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>20</v>
       </c>
       <c r="O16">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="Q16">
-        <f>O16-D28</f>
+        <f>O16-D32</f>
         <v>0</v>
       </c>
     </row>
@@ -721,21 +720,21 @@
         <v>1</v>
       </c>
       <c r="L17">
-        <f>E28-N17-M17-SUM(B17:H17)</f>
-        <v>31</v>
+        <f>E32-N17-M17-SUM(B17:H17)</f>
+        <v>58</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17">
         <v>10</v>
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="Q17">
-        <f>O17-E28</f>
+        <f>O17-E32</f>
         <v>0</v>
       </c>
     </row>
@@ -762,8 +761,8 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <f>F28-N18-M18-SUM(B18:H18)</f>
-        <v>14.5</v>
+        <f>F32-N18-M18-SUM(B18:H18)</f>
+        <v>29.5</v>
       </c>
       <c r="M18">
         <v>3</v>
@@ -773,10 +772,10 @@
       </c>
       <c r="O18">
         <f t="shared" si="0"/>
-        <v>39.5</v>
+        <v>54.5</v>
       </c>
       <c r="Q18">
-        <f>O18-F28</f>
+        <f>O18-F32</f>
         <v>0</v>
       </c>
     </row>
@@ -803,21 +802,21 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <f>G28-N19-M19-SUM(B19:H19)</f>
-        <v>34</v>
+        <f>G32-N19-M19-SUM(B19:H19)</f>
+        <v>57</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>5</v>
       </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="Q19">
-        <f>O19-G28</f>
+        <f>O19-G32</f>
         <v>0</v>
       </c>
     </row>
@@ -844,21 +843,21 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <f>H28-N20-M20-SUM(B20:H20)</f>
-        <v>32.5</v>
+        <f>H32-N20-M20-SUM(B20:H20)</f>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="N20">
         <v>5</v>
       </c>
       <c r="O20">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="Q20">
-        <f>O20-H28</f>
+        <f>O20-H32</f>
         <v>0</v>
       </c>
     </row>
@@ -867,255 +866,367 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O21">
         <f>SUM(B21:H21)</f>
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="Q21">
-        <f>O21-I28</f>
+        <f>O21-I32</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O22">
-        <f t="shared" si="0"/>
-        <v>143</v>
-      </c>
-      <c r="Q22">
-        <f>O22-J28</f>
-        <v>0</v>
+        <f>SUM(B22:H22)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O23">
         <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="Q23">
-        <f>O23-K28</f>
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24">
         <v>30</v>
       </c>
-      <c r="J24">
-        <f>0.9*J28</f>
-        <v>128.70000000000002</v>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
       </c>
       <c r="O24">
         <f t="shared" si="0"/>
-        <v>158.70000000000002</v>
-      </c>
-      <c r="Q24">
-        <f>O24+O25-L28</f>
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25">
-        <v>10</v>
-      </c>
-      <c r="K25">
-        <f>0.9*K28</f>
-        <v>109.8</v>
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
       </c>
       <c r="O25">
         <f t="shared" si="0"/>
-        <v>119.8</v>
-      </c>
-      <c r="Q25">
-        <f>O24+O25-L28</f>
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26">
-        <f>0.1*J28</f>
-        <v>14.3</v>
-      </c>
-      <c r="K26">
-        <f>0.1*K28</f>
-        <v>12.200000000000001</v>
-      </c>
-      <c r="L26">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
       </c>
       <c r="O26">
-        <f>SUM(B26:N26)</f>
-        <v>51.5</v>
-      </c>
-      <c r="Q26">
-        <f>O26-M28</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
         <v>1</v>
       </c>
-      <c r="L27">
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>200</v>
+      </c>
+      <c r="J28">
+        <f>0.9*J32</f>
+        <v>128.70000000000002</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>328.70000000000005</v>
+      </c>
+      <c r="Q28">
+        <f>O28+O29-L32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <f>0.9*K32</f>
+        <v>109.8</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>159.80000000000001</v>
+      </c>
+      <c r="Q29">
+        <f>O28+O29-L32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30">
+        <v>30</v>
+      </c>
+      <c r="J30">
+        <f>0.1*J32</f>
+        <v>14.3</v>
+      </c>
+      <c r="K30">
+        <f>0.1*K32</f>
+        <v>12.200000000000001</v>
+      </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="O30">
+        <f>SUM(B30:N30)</f>
+        <v>76.5</v>
+      </c>
+      <c r="Q30">
+        <f>O30-M32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <f>SUM(N14:N20)</f>
         <v>60</v>
       </c>
-      <c r="O27">
+      <c r="O31">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="Q27">
-        <f>O27-N28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
+      <c r="Q31">
+        <f>O31-N32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A32" t="s">
         <v>2</v>
       </c>
-      <c r="B28">
-        <f>SUM(B14:B27)</f>
-        <v>100</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:N28" si="1">SUM(C14:C27)</f>
-        <v>77</v>
-      </c>
-      <c r="D28">
+      <c r="B32">
+        <f>SUM(B14:B31)</f>
+        <v>190</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:N32" si="1">SUM(C14:C31)</f>
+        <v>122</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>54.5</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="E28">
+      <c r="H32">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="F28">
+        <v>66</v>
+      </c>
+      <c r="I32">
         <f t="shared" si="1"/>
-        <v>39.5</v>
-      </c>
-      <c r="G28">
+        <v>280</v>
+      </c>
+      <c r="J32">
+        <f>SUM(O22:O24)</f>
+        <v>143</v>
+      </c>
+      <c r="K32">
+        <f>SUM(O25:O27)</f>
+        <v>122</v>
+      </c>
+      <c r="L32">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="J28">
-        <f>O22</f>
-        <v>143</v>
-      </c>
-      <c r="K28">
-        <f>O23</f>
-        <v>122</v>
-      </c>
-      <c r="L28">
-        <f t="shared" si="1"/>
-        <v>278.5</v>
-      </c>
-      <c r="M28">
-        <f>SUM(M14:M27)</f>
-        <v>51.5</v>
-      </c>
-      <c r="N28">
+        <v>488.5</v>
+      </c>
+      <c r="M32">
+        <f>SUM(M14:M31)</f>
+        <v>76.5</v>
+      </c>
+      <c r="N32">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Q28">
-        <f>SUM(Q14:Q27)</f>
+      <c r="Q32">
+        <f>SUM(Q14:Q31)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q28">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+  <conditionalFormatting sqref="Q32">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q14:Q27">
+  <conditionalFormatting sqref="Q14:Q31">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
